--- a/data/growth_groups_export.xlsx
+++ b/data/growth_groups_export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="364">
   <si>
     <t>Timeslot: Tue 1.00pm</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Group</t>
   </si>
   <si>
+    <t>Preferred Partner</t>
+  </si>
+  <si>
     <t>Chow Yan Kai, Ernest</t>
   </si>
   <si>
@@ -100,45 +103,48 @@
     <t>Member</t>
   </si>
   <si>
+    <t>@jamietsyy</t>
+  </si>
+  <si>
     <t>Jamie Tan Shiyun</t>
   </si>
   <si>
-    <t>@jamietsyy</t>
-  </si>
-  <si>
     <t>SOB</t>
   </si>
   <si>
+    <t>@lukie_kks</t>
+  </si>
+  <si>
+    <t>Hei Yee Kai</t>
+  </si>
+  <si>
+    <t>@beegboikai</t>
+  </si>
+  <si>
+    <t>@aaronwzq</t>
+  </si>
+  <si>
     <t>Aaron Quek Wei Zhong</t>
   </si>
   <si>
-    <t>@aaronwzq</t>
-  </si>
-  <si>
-    <t>Hei Yee Kai</t>
-  </si>
-  <si>
-    <t>@beegboikai</t>
+    <t>ho shin yeen</t>
+  </si>
+  <si>
+    <t>@shylyshiny</t>
+  </si>
+  <si>
+    <t>SOA</t>
+  </si>
+  <si>
+    <t>@cloudyswirls</t>
   </si>
   <si>
     <t>Cheryl Soong</t>
   </si>
   <si>
-    <t>@cloudyswirls</t>
-  </si>
-  <si>
     <t>CIS</t>
   </si>
   <si>
-    <t>ho shin yeen</t>
-  </si>
-  <si>
-    <t>@shylyshiny</t>
-  </si>
-  <si>
-    <t>SOA</t>
-  </si>
-  <si>
     <t>Lam Wen Ci Nathanael</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>SOSS</t>
   </si>
   <si>
+    <t>@nic_xuan</t>
+  </si>
+  <si>
     <t>Julianne Yap Qian Hui</t>
   </si>
   <si>
@@ -157,6 +166,9 @@
     <t>Tue 1.00pm, Tue 4.30pm</t>
   </si>
   <si>
+    <t>@L3_min, @emtz01, @dibo_the_dino</t>
+  </si>
+  <si>
     <t>Eliora Delphine Loo Yun</t>
   </si>
   <si>
@@ -208,12 +220,18 @@
     <t>@gladthis</t>
   </si>
   <si>
+    <t>@kaiyue_ky</t>
+  </si>
+  <si>
     <t>Aaron Michael Khoo Jing En</t>
   </si>
   <si>
     <t>@aaronkje</t>
   </si>
   <si>
+    <t>@Joseng07</t>
+  </si>
+  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -244,22 +262,28 @@
     <t>@l3_min</t>
   </si>
   <si>
+    <t>Andrea Tan</t>
+  </si>
+  <si>
+    <t>@andreatyq</t>
+  </si>
+  <si>
+    <t>@jayne_ey</t>
+  </si>
+  <si>
+    <t>Ava Kong</t>
+  </si>
+  <si>
+    <t>@avakongg</t>
+  </si>
+  <si>
     <t>Jayne Wong</t>
   </si>
   <si>
-    <t>@jayne_ey</t>
-  </si>
-  <si>
-    <t>Ava Kong</t>
-  </si>
-  <si>
-    <t>@avakongg</t>
-  </si>
-  <si>
-    <t>Andrea Tan</t>
-  </si>
-  <si>
-    <t>@andreatyq</t>
+    <t>Ethan Lim Hengyi</t>
+  </si>
+  <si>
+    <t>@ethann_jlim</t>
   </si>
   <si>
     <t>Mildred Yeo Wen Min</t>
@@ -268,10 +292,13 @@
     <t>@millieeepede</t>
   </si>
   <si>
-    <t>Ethan Lim Hengyi</t>
-  </si>
-  <si>
-    <t>@ethann_jlim</t>
+    <t>Jillian Lam Rui En</t>
+  </si>
+  <si>
+    <t>@jillyylam</t>
+  </si>
+  <si>
+    <t>@RebeccaYap05</t>
   </si>
   <si>
     <t>Rebecca Yap</t>
@@ -280,12 +307,6 @@
     <t>@rebeccayap05</t>
   </si>
   <si>
-    <t>Jillian Lam Rui En</t>
-  </si>
-  <si>
-    <t>@jillyylam</t>
-  </si>
-  <si>
     <t>Ian Wong SongYi</t>
   </si>
   <si>
@@ -310,6 +331,9 @@
     <t>@johnnyahboi</t>
   </si>
   <si>
+    <t>@makariostang</t>
+  </si>
+  <si>
     <t>Thaniel Tanudjaja</t>
   </si>
   <si>
@@ -349,18 +373,18 @@
     <t>@leahgan</t>
   </si>
   <si>
+    <t>Marc Ong Ker En</t>
+  </si>
+  <si>
+    <t>@marcong</t>
+  </si>
+  <si>
     <t>Tan Yong Wei Timothy</t>
   </si>
   <si>
     <t>@timosumo</t>
   </si>
   <si>
-    <t>Marc Ong Ker En</t>
-  </si>
-  <si>
-    <t>@marcong</t>
-  </si>
-  <si>
     <t>Melene</t>
   </si>
   <si>
@@ -373,6 +397,9 @@
     <t>@niingyy</t>
   </si>
   <si>
+    <t>@melloo_jq, @kristaltang</t>
+  </si>
+  <si>
     <t>Tan Jie Xin</t>
   </si>
   <si>
@@ -418,6 +445,9 @@
     <t>@bunnyyyying</t>
   </si>
   <si>
+    <t>@none</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calvin Chirnside </t>
   </si>
   <si>
@@ -445,6 +475,9 @@
     <t>@efaniyeo</t>
   </si>
   <si>
+    <t>@lilnaom, @claudelle_k</t>
+  </si>
+  <si>
     <t>Naomi Ang</t>
   </si>
   <si>
@@ -457,30 +490,39 @@
     <t>@hibyewhy</t>
   </si>
   <si>
+    <t>@serenastelehandle, @yiiiruuu</t>
+  </si>
+  <si>
     <t>Lim Yi Ru</t>
   </si>
   <si>
     <t>@yiiiruuu</t>
   </si>
   <si>
+    <t>@serenastelehandle, @Hibyewhy</t>
+  </si>
+  <si>
+    <t>Kimberly Tsang Li Ting</t>
+  </si>
+  <si>
+    <t>@kimberlytlt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Loh Paige </t>
   </si>
   <si>
     <t>@paigelpq</t>
   </si>
   <si>
-    <t>Kimberly Tsang Li Ting</t>
-  </si>
-  <si>
-    <t>@kimberlytlt</t>
-  </si>
-  <si>
     <t>Yip Xin Hong, Kaizer</t>
   </si>
   <si>
     <t>@kaizeryip</t>
   </si>
   <si>
+    <t>@yeonglet</t>
+  </si>
+  <si>
     <t>Jaden Foo</t>
   </si>
   <si>
@@ -505,6 +547,9 @@
     <t>@bxnjxmxnnnn</t>
   </si>
   <si>
+    <t>@serenastelehandle</t>
+  </si>
+  <si>
     <t>Emmanuel Justin Koh</t>
   </si>
   <si>
@@ -517,22 +562,31 @@
     <t>@sierrachan</t>
   </si>
   <si>
+    <t>Cham Shin Ron</t>
+  </si>
+  <si>
+    <t>@shinroncham</t>
+  </si>
+  <si>
+    <t>Claire Sham Xingyi</t>
+  </si>
+  <si>
+    <t>@calori</t>
+  </si>
+  <si>
+    <t>@jiarongggg</t>
+  </si>
+  <si>
     <t>Goh Jia Rong</t>
   </si>
   <si>
-    <t>@jiarongggg</t>
-  </si>
-  <si>
-    <t>Claire Sham Xingyi</t>
-  </si>
-  <si>
-    <t>@calori</t>
-  </si>
-  <si>
-    <t>Cham Shin Ron</t>
-  </si>
-  <si>
-    <t>@shinroncham</t>
+    <t xml:space="preserve">Ashley Lim </t>
+  </si>
+  <si>
+    <t>@aaashl</t>
+  </si>
+  <si>
+    <t>@pooble, @benbayy</t>
   </si>
   <si>
     <t>Koh En Ze, Emma</t>
@@ -541,24 +595,18 @@
     <t>@pooble</t>
   </si>
   <si>
-    <t xml:space="preserve">Ashley Lim </t>
-  </si>
-  <si>
-    <t>@aaashl</t>
+    <t>Nicole Sheenlyn Yau</t>
+  </si>
+  <si>
+    <t>@coleeez</t>
+  </si>
+  <si>
+    <t>@chloleee</t>
   </si>
   <si>
     <t>Chloe Lee En Rui</t>
   </si>
   <si>
-    <t>@chloleee</t>
-  </si>
-  <si>
-    <t>Nicole Sheenlyn Yau</t>
-  </si>
-  <si>
-    <t>@coleeez</t>
-  </si>
-  <si>
     <t>Caleb Chang</t>
   </si>
   <si>
@@ -604,9 +652,6 @@
     <t>Nicolas Neo</t>
   </si>
   <si>
-    <t>@nic_xuan</t>
-  </si>
-  <si>
     <t>Staff</t>
   </si>
   <si>
@@ -616,16 +661,34 @@
     <t>@givemethemcflurryandapplepie</t>
   </si>
   <si>
+    <t>@grcechu, @meggu</t>
+  </si>
+  <si>
+    <t>Megan Low Jia Ying</t>
+  </si>
+  <si>
+    <t>@meggu</t>
+  </si>
+  <si>
+    <t>@givemethemcflurryandapplepie, @grcechu</t>
+  </si>
+  <si>
     <t>grace chua</t>
   </si>
   <si>
     <t>@grcechu</t>
   </si>
   <si>
-    <t>Megan Low Jia Ying</t>
-  </si>
-  <si>
-    <t>@meggu</t>
+    <t>@givemethemcflurryandapplepie, @lalal_a_m</t>
+  </si>
+  <si>
+    <t>Lim Joo Jia Naomi</t>
+  </si>
+  <si>
+    <t>@naomilim</t>
+  </si>
+  <si>
+    <t>@sonia_cheezel</t>
   </si>
   <si>
     <t>Timothy Tay Guang Zhi</t>
@@ -637,27 +700,24 @@
     <t>Sonia Lim</t>
   </si>
   <si>
-    <t>@sonia_cheezel</t>
-  </si>
-  <si>
-    <t>Lim Joo Jia Naomi</t>
-  </si>
-  <si>
-    <t>@naomilim</t>
-  </si>
-  <si>
     <t>Elijah Han</t>
   </si>
   <si>
     <t>@elijahhan</t>
   </si>
   <si>
+    <t>@JOwen2, @nic_xuan, @ethann_jlim</t>
+  </si>
+  <si>
     <t>Tan Xin Yu Kainos</t>
   </si>
   <si>
     <t>@ktsleepsalot</t>
   </si>
   <si>
+    <t>@wtfangie</t>
+  </si>
+  <si>
     <t>Reuben Tan Kai Le</t>
   </si>
   <si>
@@ -679,16 +739,34 @@
     <t>@lalal_a_m</t>
   </si>
   <si>
+    <t>Sieon</t>
+  </si>
+  <si>
+    <t>@s1e0nn</t>
+  </si>
+  <si>
+    <t>@ariellelynn</t>
+  </si>
+  <si>
     <t>Tan Yan Hui (Mindy)</t>
   </si>
   <si>
     <t>@mindehh</t>
   </si>
   <si>
+    <t>@serenastelehandle, @ariellelynn, @JOwen2</t>
+  </si>
+  <si>
     <t>Arielle Lynn Huang Jing Yi</t>
   </si>
   <si>
-    <t>@ariellelynn</t>
+    <t>Samuel Heng</t>
+  </si>
+  <si>
+    <t>@samheng</t>
+  </si>
+  <si>
+    <t>@serenastelehandle, @ariellelynn, @mindehh</t>
   </si>
   <si>
     <t xml:space="preserve">Gan Ru Shern, Josephj </t>
@@ -697,34 +775,34 @@
     <t>@joseng07</t>
   </si>
   <si>
+    <t>@mindehh, @samheng</t>
+  </si>
+  <si>
+    <t>Whey Yu Xin Esther</t>
+  </si>
+  <si>
+    <t>@estherwhey</t>
+  </si>
+  <si>
+    <t>@reewkryeoo, @elijahphua</t>
+  </si>
+  <si>
+    <t>Jefferson Owen Suteono</t>
+  </si>
+  <si>
+    <t>@jowen2</t>
+  </si>
+  <si>
+    <t>@serenastelehandle, @ariellelynn, @samheng</t>
+  </si>
+  <si>
     <t>Yeo Zi Yi Luke</t>
   </si>
   <si>
     <t>@reewkryeoo</t>
   </si>
   <si>
-    <t>Samuel Heng</t>
-  </si>
-  <si>
-    <t>@samheng</t>
-  </si>
-  <si>
-    <t>Whey Yu Xin Esther</t>
-  </si>
-  <si>
-    <t>@estherwhey</t>
-  </si>
-  <si>
-    <t>Jefferson Owen Suteono</t>
-  </si>
-  <si>
-    <t>@jowen2</t>
-  </si>
-  <si>
-    <t>Sieon</t>
-  </si>
-  <si>
-    <t>@s1e0nn</t>
+    <t>@samheng, @mindehh, @JOwen2</t>
   </si>
   <si>
     <t xml:space="preserve">Lucas Teo </t>
@@ -757,6 +835,9 @@
     <t>@chri5ty</t>
   </si>
   <si>
+    <t>@joyyyyw</t>
+  </si>
+  <si>
     <t>Anugrah Bhatnagar</t>
   </si>
   <si>
@@ -784,6 +865,9 @@
     <t>@ not applicable</t>
   </si>
   <si>
+    <t>@SILAS</t>
+  </si>
+  <si>
     <t>Deborah Koh</t>
   </si>
   <si>
@@ -793,16 +877,19 @@
     <t>Thu 1.00pm</t>
   </si>
   <si>
+    <t>Basil Wee</t>
+  </si>
+  <si>
+    <t>@basilwee</t>
+  </si>
+  <si>
     <t>Low Yew Kin</t>
   </si>
   <si>
     <t>@yewkinn</t>
   </si>
   <si>
-    <t>Basil Wee</t>
-  </si>
-  <si>
-    <t>@basilwee</t>
+    <t>@basilwee, @daniellai, @H_1iang</t>
   </si>
   <si>
     <t>Ng Kai Shen Andrew</t>
@@ -811,6 +898,9 @@
     <t>@andrew_nks</t>
   </si>
   <si>
+    <t>@notacutieatall, @fattylowe, @kanchimun, @matt2go</t>
+  </si>
+  <si>
     <t>Wardah</t>
   </si>
   <si>
@@ -847,6 +937,9 @@
     <t>@reneeetann</t>
   </si>
   <si>
+    <t>preferably with @sarah siew</t>
+  </si>
+  <si>
     <t>Kang Wen Xu</t>
   </si>
   <si>
@@ -877,22 +970,25 @@
     <t>@matchaforlyfers</t>
   </si>
   <si>
+    <t>@sara_csr</t>
+  </si>
+  <si>
     <t>Sara Chan</t>
   </si>
   <si>
-    <t>@sara_csr</t>
-  </si>
-  <si>
     <t>Sean Cheng Yishao</t>
   </si>
   <si>
     <t>@seancheng100</t>
   </si>
   <si>
+    <t>@aandrewlee</t>
+  </si>
+  <si>
     <t>Lee Chien Rong, Andrew</t>
   </si>
   <si>
-    <t>@aandrewlee</t>
+    <t>@Seancheng100</t>
   </si>
   <si>
     <t>Morenike Elizabeth Allinson</t>
@@ -934,39 +1030,39 @@
     <t>Makarios Tang</t>
   </si>
   <si>
-    <t>@makariostang</t>
+    <t>Christian Frensty</t>
+  </si>
+  <si>
+    <t>@achrisf</t>
+  </si>
+  <si>
+    <t>@alansbn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvina Yulandra </t>
+  </si>
+  <si>
+    <t>@cyulandraa</t>
+  </si>
+  <si>
+    <t>@alansb.n, @achrisf</t>
   </si>
   <si>
     <t>Alan Sebastian Bun</t>
   </si>
   <si>
-    <t>@alansbn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calvina Yulandra </t>
-  </si>
-  <si>
-    <t>@cyulandraa</t>
-  </si>
-  <si>
-    <t>Christian Frensty</t>
-  </si>
-  <si>
-    <t>@achrisf</t>
+    <t>alvan lee</t>
+  </si>
+  <si>
+    <t>@aalvann</t>
+  </si>
+  <si>
+    <t>@sailor19111</t>
   </si>
   <si>
     <t>SIM JUNFU SEAN</t>
   </si>
   <si>
-    <t>@sailor19111</t>
-  </si>
-  <si>
-    <t>alvan lee</t>
-  </si>
-  <si>
-    <t>@aalvann</t>
-  </si>
-  <si>
     <t>Karina Aileen Emmanuel</t>
   </si>
   <si>
@@ -977,6 +1073,9 @@
   </si>
   <si>
     <t>@yoohoonice</t>
+  </si>
+  <si>
+    <t>@euu0_0</t>
   </si>
   <si>
     <t>TRINA OH FANG HUI</t>
@@ -1395,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP96"/>
+  <dimension ref="A1:AQ96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,8 +1507,9 @@
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="36.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" customWidth="1"/>
     <col min="16" max="16" width="28.7109375" customWidth="1"/>
     <col min="17" max="17" width="31.7109375" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" customWidth="1"/>
@@ -1417,8 +1517,9 @@
     <col min="21" max="21" width="8.7109375" customWidth="1"/>
     <col min="22" max="22" width="24.7109375" customWidth="1"/>
     <col min="23" max="23" width="7.7109375" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" customWidth="1"/>
+    <col min="24" max="24" width="44.7109375" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" customWidth="1"/>
     <col min="31" max="31" width="33.7109375" customWidth="1"/>
     <col min="32" max="32" width="18.7109375" customWidth="1"/>
     <col min="33" max="33" width="8.7109375" customWidth="1"/>
@@ -1426,11 +1527,12 @@
     <col min="36" max="36" width="8.7109375" customWidth="1"/>
     <col min="37" max="37" width="24.7109375" customWidth="1"/>
     <col min="38" max="38" width="7.7109375" customWidth="1"/>
-    <col min="41" max="41" width="16.7109375" customWidth="1"/>
-    <col min="42" max="42" width="4.7109375" customWidth="1"/>
+    <col min="39" max="39" width="50.7109375" customWidth="1"/>
+    <col min="42" max="42" width="16.7109375" customWidth="1"/>
+    <col min="43" max="43" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:39">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1452,7 +1554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:39">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1477,6 +1579,9 @@
       <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="P3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1501,6 +1606,9 @@
       <c r="W3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="X3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="AE3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1525,1094 +1633,1181 @@
       <c r="AL3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:38">
+      <c r="AM3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
       </c>
+      <c r="I4" s="5"/>
       <c r="P4" s="4" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W4" s="5">
         <v>1</v>
       </c>
+      <c r="X4" s="5"/>
       <c r="AE4" s="4" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:38">
+      <c r="AM4" s="5"/>
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="H5" s="5">
         <v>1</v>
       </c>
+      <c r="I5" s="5"/>
       <c r="P5" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W5" s="5">
         <v>1</v>
       </c>
+      <c r="X5" s="5"/>
       <c r="AE5" s="5" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH5" s="5">
         <v>3</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL5" s="5"/>
-    </row>
-    <row r="6" spans="1:38">
+      <c r="AM5" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="P6" s="5" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S6" s="5">
         <v>2</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W6" s="5"/>
+      <c r="X6" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="AE6" s="5" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH6" s="5">
         <v>3</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL6" s="5"/>
-    </row>
-    <row r="7" spans="1:38">
+      <c r="AM6" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="P7" s="5" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S7" s="5">
         <v>2</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
       <c r="AE7" s="5" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH7" s="5">
         <v>4</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AK7" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="AL7" s="5"/>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="P8" s="5" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S8" s="5">
         <v>4</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W8" s="5"/>
+      <c r="X8" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="AE8" s="5" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH8" s="5">
         <v>2</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AJ8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AK8" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="AL8" s="5"/>
-    </row>
-    <row r="9" spans="1:38">
-      <c r="A9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="F9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="5"/>
       <c r="P9" s="5" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S9" s="5">
         <v>4</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W9" s="5"/>
+      <c r="X9" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AE9" s="5" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH9" s="5">
         <v>3</v>
       </c>
       <c r="AI9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="AL9" s="5"/>
-    </row>
-    <row r="10" spans="1:38">
+      <c r="AM9" s="5"/>
+    </row>
+    <row r="10" spans="1:39">
       <c r="A10" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="P10" s="5" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S10" s="5">
         <v>2</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
       <c r="AE10" s="5" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH10" s="5">
         <v>1</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AJ10" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL10" s="5"/>
-    </row>
-    <row r="11" spans="1:38">
+      <c r="AM10" s="5"/>
+    </row>
+    <row r="11" spans="1:39">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="P11" s="5" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S11" s="5">
         <v>2</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W11" s="5"/>
+      <c r="X11" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="AE11" s="5" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="AG11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH11" s="5">
         <v>3</v>
       </c>
       <c r="AI11" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK11" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL11" s="5"/>
-    </row>
-    <row r="12" spans="1:38">
+      <c r="AM11" s="5"/>
+    </row>
+    <row r="12" spans="1:39">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="P12" s="5" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S12" s="5">
         <v>4</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W12" s="5"/>
+      <c r="X12" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="AE12" s="5" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" s="5">
         <v>2</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK12" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL12" s="5"/>
-    </row>
-    <row r="13" spans="1:38">
+      <c r="AM12" s="5"/>
+    </row>
+    <row r="13" spans="1:39">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="P13" s="5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S13" s="5">
         <v>1</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
       <c r="AE13" s="5" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="AG13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH13" s="5">
         <v>1</v>
       </c>
       <c r="AI13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AJ13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK13" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL13" s="5"/>
-    </row>
-    <row r="14" spans="1:38">
+      <c r="AM13" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="P14" s="5" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S14" s="5">
         <v>1</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
       <c r="AE14" s="5" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH14" s="5">
         <v>2</v>
       </c>
       <c r="AI14" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL14" s="5"/>
-    </row>
-    <row r="15" spans="1:38">
+      <c r="AM14" s="5"/>
+    </row>
+    <row r="15" spans="1:39">
       <c r="A15" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5">
         <v>3</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="P15" s="5" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S15" s="5">
         <v>1</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
       <c r="AE15" s="5" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="AF15" s="5" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="AG15" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH15" s="5">
         <v>1</v>
       </c>
       <c r="AI15" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK15" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL15" s="5"/>
-    </row>
-    <row r="16" spans="1:38">
+      <c r="AM15" s="5"/>
+    </row>
+    <row r="16" spans="1:39">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="P16" s="5" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S16" s="5">
         <v>3</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W16" s="5"/>
+      <c r="X16" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="AE16" s="5" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH16" s="5">
         <v>1</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL16" s="5"/>
-    </row>
-    <row r="17" spans="1:42">
+      <c r="AM16" s="5"/>
+    </row>
+    <row r="17" spans="1:43">
       <c r="A17" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:42">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:43">
       <c r="A18" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="5">
         <v>4</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="Z18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO18" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42">
+      <c r="I18" s="5"/>
+      <c r="AA18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP18" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43">
       <c r="A19" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="Z19" t="s">
+      <c r="I19" s="5"/>
+      <c r="AA19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB19">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
+      <c r="A20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AA19">
-        <v>13</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42">
-      <c r="A20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="5">
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="Z20" t="s">
+      <c r="I20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB20">
         <v>6</v>
       </c>
-      <c r="AO20" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP20">
+      <c r="AP20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:43">
       <c r="A21" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="5">
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="Z21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA21">
+      <c r="I21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB21">
         <v>7</v>
       </c>
-      <c r="AO21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP21">
+      <c r="AP21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
-      <c r="K23" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42">
-      <c r="K24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24">
+    <row r="23" spans="1:43">
+      <c r="L23" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
+      <c r="L24" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:43">
       <c r="A25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K25" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25">
+        <v>76</v>
+      </c>
+      <c r="L25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25">
         <v>9</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2637,10 +2832,13 @@
       <c r="H26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26">
+      <c r="I26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26">
         <v>9</v>
       </c>
       <c r="P26" s="3" t="s">
@@ -2667,6 +2865,9 @@
       <c r="W26" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="X26" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="AE26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2691,1080 +2892,1164 @@
       <c r="AL26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:42">
+      <c r="AM26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
       <c r="A27" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H27" s="5">
         <v>2</v>
       </c>
+      <c r="I27" s="5"/>
       <c r="P27" s="4" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W27" s="5">
         <v>2</v>
       </c>
+      <c r="X27" s="5"/>
       <c r="AE27" s="4" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="AF27" s="5" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="AG27" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH27" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI27" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ27" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK27" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL27" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:42">
+      <c r="AM27" s="5"/>
+    </row>
+    <row r="28" spans="1:43">
       <c r="A28" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H28" s="5">
         <v>2</v>
       </c>
+      <c r="I28" s="5"/>
       <c r="P28" s="4" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W28" s="5">
         <v>2</v>
       </c>
+      <c r="X28" s="5"/>
       <c r="AE28" s="5" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH28" s="5">
         <v>1</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL28" s="5"/>
-    </row>
-    <row r="29" spans="1:42">
+      <c r="AM28" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
       <c r="A29" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" s="5">
         <v>4</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="P29" s="5" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S29" s="5">
         <v>1</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W29" s="5"/>
+      <c r="X29" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="AE29" s="5" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="AF29" s="5" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="AG29" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH29" s="5">
         <v>1</v>
       </c>
       <c r="AI29" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ29" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK29" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL29" s="5"/>
-    </row>
-    <row r="30" spans="1:42">
+      <c r="AM29" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
       <c r="A30" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D30" s="5">
         <v>4</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="P30" s="5" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S30" s="5">
         <v>2</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W30" s="5"/>
+      <c r="X30" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="AE30" s="5" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="AF30" s="5" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="AG30" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH30" s="5">
         <v>2</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ30" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK30" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL30" s="5"/>
-    </row>
-    <row r="31" spans="1:42">
+      <c r="AM30" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
       <c r="A31" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" s="5">
         <v>4</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="P31" s="5" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S31" s="5">
         <v>1</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W31" s="5"/>
+      <c r="X31" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="AE31" s="5" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="AF31" s="5" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="AG31" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH31" s="5">
         <v>2</v>
       </c>
       <c r="AI31" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ31" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK31" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL31" s="5"/>
-    </row>
-    <row r="32" spans="1:42">
+      <c r="AM31" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
       <c r="A32" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="P32" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S32" s="5">
+        <v>4</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE32" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF32" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK32" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+    </row>
+    <row r="33" spans="1:43">
+      <c r="A33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="5">
         <v>1</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="P32" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S32" s="5">
+      <c r="E33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33" s="5">
         <v>2</v>
       </c>
-      <c r="T32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="W32" s="5"/>
-      <c r="AE32" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="AF32" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI32" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK32" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="AL32" s="5"/>
-    </row>
-    <row r="33" spans="1:42">
-      <c r="A33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="5">
-        <v>2</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="P33" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S33" s="5">
-        <v>4</v>
-      </c>
       <c r="T33" s="5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W33" s="5"/>
+      <c r="X33" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="AE33" s="5" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="AF33" s="5" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="AG33" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH33" s="5">
         <v>2</v>
       </c>
       <c r="AI33" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AJ33" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK33" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL33" s="5"/>
-    </row>
-    <row r="34" spans="1:42">
+      <c r="AM33" s="5"/>
+    </row>
+    <row r="34" spans="1:43">
       <c r="A34" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H34" s="5"/>
+      <c r="I34" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="P34" s="5" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S34" s="5">
         <v>2</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W34" s="5"/>
+      <c r="X34" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="AE34" s="5" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="AF34" s="5" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="AG34" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH34" s="5">
         <v>1</v>
       </c>
       <c r="AI34" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ34" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK34" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL34" s="5"/>
-    </row>
-    <row r="35" spans="1:42">
+      <c r="AM34" s="5"/>
+    </row>
+    <row r="35" spans="1:43">
       <c r="A35" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="P35" s="5" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S35" s="5">
         <v>2</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W35" s="5"/>
+      <c r="X35" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="AE35" s="5" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="AF35" s="5" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="AG35" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH35" s="5">
         <v>1</v>
       </c>
       <c r="AI35" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AJ35" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK35" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL35" s="5"/>
-    </row>
-    <row r="36" spans="1:42">
+      <c r="AM35" s="5"/>
+    </row>
+    <row r="36" spans="1:43">
       <c r="A36" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="P36" s="5" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S36" s="5">
         <v>1</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
       <c r="AE36" s="5" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="AF36" s="5" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="AG36" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH36" s="5">
         <v>1</v>
       </c>
       <c r="AI36" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK36" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL36" s="5"/>
-    </row>
-    <row r="37" spans="1:42">
+      <c r="AM36" s="5"/>
+    </row>
+    <row r="37" spans="1:43">
       <c r="A37" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
       <c r="P37" s="5" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S37" s="5">
         <v>4</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
       <c r="AE37" s="5" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="AF37" s="5" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="AG37" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH37" s="5">
         <v>1</v>
       </c>
       <c r="AI37" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ37" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK37" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL37" s="5"/>
-    </row>
-    <row r="38" spans="1:42">
+      <c r="AM37" s="5"/>
+    </row>
+    <row r="38" spans="1:43">
       <c r="A38" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="5">
         <v>2</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
       <c r="P38" s="5" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S38" s="5">
         <v>4</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W38" s="5"/>
-    </row>
-    <row r="39" spans="1:42">
+      <c r="X38" s="5"/>
+    </row>
+    <row r="39" spans="1:43">
       <c r="A39" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="5">
         <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39" s="5"/>
+      <c r="I39" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="P39" s="5" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S39" s="5">
         <v>3</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W39" s="5"/>
-      <c r="AO39" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:42">
+      <c r="X39" s="5"/>
+      <c r="AP39" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43">
       <c r="A40" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
       <c r="P40" s="5" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S40" s="5">
         <v>0</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W40" s="5"/>
-      <c r="AO40" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP40">
+      <c r="X40" s="5"/>
+      <c r="AP40" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ40">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:43">
       <c r="A41" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D41" s="5">
         <v>2</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
       <c r="P41" s="5" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="W41" s="5"/>
-      <c r="AO41" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP41">
+      <c r="X41" s="5"/>
+      <c r="AP41" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ41">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:43">
       <c r="A42" s="5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="AO42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP42">
+      <c r="I42" s="5"/>
+      <c r="AP42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:43">
       <c r="A43" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D43" s="5">
         <v>5</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="Z43" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:42">
-      <c r="Z44" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:42">
-      <c r="K45" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA45">
+      <c r="I43" s="5"/>
+      <c r="AA43" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43">
+      <c r="AA44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43">
+      <c r="L45" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB45">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:42">
-      <c r="K46" t="s">
-        <v>67</v>
-      </c>
-      <c r="L46">
+    <row r="46" spans="1:43">
+      <c r="L46" t="s">
+        <v>73</v>
+      </c>
+      <c r="M46">
         <v>17</v>
       </c>
-      <c r="Z46" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA46">
+      <c r="AA46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB46">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:42">
-      <c r="K47" t="s">
-        <v>68</v>
-      </c>
-      <c r="L47">
+    <row r="47" spans="1:43">
+      <c r="L47" t="s">
+        <v>74</v>
+      </c>
+      <c r="M47">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:43">
       <c r="A48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K48" t="s">
-        <v>69</v>
-      </c>
-      <c r="L48">
+        <v>114</v>
+      </c>
+      <c r="L48" t="s">
+        <v>75</v>
+      </c>
+      <c r="M48">
         <v>9</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:41">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3789,6 +4074,9 @@
       <c r="H49" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="I49" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3813,6 +4101,9 @@
       <c r="W49" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="X49" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="AE49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3837,960 +4128,1039 @@
       <c r="AL49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:41">
+      <c r="AM49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42">
       <c r="A50" s="4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H50" s="5">
         <v>3</v>
       </c>
+      <c r="I50" s="5"/>
       <c r="P50" s="4" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V50" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W50" s="5">
         <v>3</v>
       </c>
+      <c r="X50" s="5"/>
       <c r="AE50" s="4" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="AF50" s="5" t="s">
-        <v>306</v>
+        <v>105</v>
       </c>
       <c r="AG50" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH50" s="5" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="AI50" s="5" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="AJ50" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK50" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL50" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:41">
+      <c r="AM50" s="5"/>
+    </row>
+    <row r="51" spans="1:42">
       <c r="A51" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H51" s="5">
         <v>3</v>
       </c>
+      <c r="I51" s="5"/>
       <c r="P51" s="4" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S51" s="5" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="T51" s="5" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="U51" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V51" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W51" s="5">
         <v>3</v>
       </c>
+      <c r="X51" s="5"/>
       <c r="AE51" s="5" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="AF51" s="5" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="AG51" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH51" s="5">
         <v>1</v>
       </c>
       <c r="AI51" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ51" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK51" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL51" s="5"/>
-    </row>
-    <row r="52" spans="1:41">
+      <c r="AM51" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42">
       <c r="A52" s="5" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H52" s="5"/>
+      <c r="I52" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="P52" s="5" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S52" s="5">
         <v>3</v>
       </c>
       <c r="T52" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U52" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V52" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W52" s="5"/>
+      <c r="X52" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="AE52" s="5" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="AF52" s="5" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="AG52" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH52" s="5">
         <v>1</v>
       </c>
       <c r="AI52" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AJ52" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK52" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL52" s="5"/>
-    </row>
-    <row r="53" spans="1:41">
+      <c r="AM52" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42">
       <c r="A53" s="5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="5">
+        <v>3</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S53" s="5">
         <v>4</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="5"/>
-      <c r="P53" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q53" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S53" s="5">
-        <v>3</v>
-      </c>
       <c r="T53" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="U53" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V53" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W53" s="5"/>
+      <c r="X53" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="AE53" s="5" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="AF53" s="5" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="AG53" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH53" s="5">
         <v>1</v>
       </c>
       <c r="AI53" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ53" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK53" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL53" s="5"/>
-    </row>
-    <row r="54" spans="1:41">
+      <c r="AM53" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42">
       <c r="A54" s="5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D54" s="5">
         <v>5</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
       <c r="P54" s="5" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S54" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T54" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="U54" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V54" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W54" s="5"/>
+      <c r="X54" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="AE54" s="5" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="AF54" s="5" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="AG54" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH54" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI54" s="5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="AJ54" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK54" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL54" s="5"/>
-    </row>
-    <row r="55" spans="1:41">
+      <c r="AM54" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42">
       <c r="A55" s="5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D55" s="5">
         <v>4</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H55" s="5"/>
+      <c r="I55" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="P55" s="5" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="S55" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T55" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U55" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V55" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W55" s="5"/>
+      <c r="X55" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="AE55" s="5" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="AF55" s="5" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="AG55" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH55" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI55" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="AJ55" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK55" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL55" s="5"/>
-    </row>
-    <row r="56" spans="1:41">
+      <c r="AM55" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42">
       <c r="A56" s="5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
       <c r="P56" s="5" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="S56" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T56" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U56" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V56" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W56" s="5"/>
+      <c r="X56" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="AE56" s="5" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="AF56" s="5" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="AG56" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH56" s="5">
         <v>1</v>
       </c>
       <c r="AI56" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AJ56" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK56" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL56" s="5"/>
-    </row>
-    <row r="57" spans="1:41">
+      <c r="AM56" s="5"/>
+    </row>
+    <row r="57" spans="1:42">
       <c r="A57" s="5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
       <c r="P57" s="5" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S57" s="5">
         <v>4</v>
       </c>
       <c r="T57" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U57" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V57" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W57" s="5"/>
+      <c r="X57" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="AE57" s="5" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="AF57" s="5" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="AG57" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH57" s="5">
         <v>1</v>
       </c>
       <c r="AI57" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ57" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK57" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL57" s="5"/>
-    </row>
-    <row r="58" spans="1:41">
+      <c r="AM57" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42">
       <c r="A58" s="5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D58" s="5">
         <v>3</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
       <c r="P58" s="5" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S58" s="5">
         <v>3</v>
       </c>
       <c r="T58" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U58" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V58" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W58" s="5"/>
+      <c r="X58" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="AE58" s="5" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="AF58" s="5" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="AG58" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH58" s="5">
         <v>2</v>
       </c>
       <c r="AI58" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AJ58" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK58" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL58" s="5"/>
-    </row>
-    <row r="59" spans="1:41">
+      <c r="AM58" s="5"/>
+    </row>
+    <row r="59" spans="1:42">
       <c r="A59" s="5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="5">
         <v>3</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
       <c r="P59" s="5" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S59" s="5">
         <v>1</v>
       </c>
       <c r="T59" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W59" s="5"/>
+      <c r="X59" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="AE59" s="5" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="AF59" s="5" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="AG59" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH59" s="5">
         <v>1</v>
       </c>
       <c r="AI59" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AJ59" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK59" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL59" s="5"/>
-    </row>
-    <row r="60" spans="1:41">
+      <c r="AM59" s="5"/>
+    </row>
+    <row r="60" spans="1:42">
       <c r="A60" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
       <c r="P60" s="5" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S60" s="5">
         <v>1</v>
       </c>
       <c r="T60" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
       <c r="AE60" s="5" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="AF60" s="5" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="AG60" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH60" s="5">
         <v>3</v>
       </c>
       <c r="AI60" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AJ60" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK60" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL60" s="5"/>
-    </row>
-    <row r="61" spans="1:41">
+      <c r="AM60" s="5"/>
+    </row>
+    <row r="61" spans="1:42">
       <c r="A61" s="5" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
       <c r="AE61" s="5" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="AF61" s="5" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="AG61" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH61" s="5">
         <v>3</v>
       </c>
       <c r="AI61" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ61" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK61" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AL61" s="5"/>
-    </row>
-    <row r="62" spans="1:41">
+      <c r="AM61" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42">
       <c r="A62" s="5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D62" s="5">
         <v>4</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H62" s="5"/>
-      <c r="Z62" s="6" t="s">
-        <v>66</v>
+      <c r="I62" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA62" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="AE62" s="5" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="AF62" s="5" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="AG62" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH62" s="5">
         <v>1</v>
       </c>
       <c r="AI62" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ62" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK62" s="5" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="AL62" s="5"/>
-    </row>
-    <row r="63" spans="1:41">
+      <c r="AM62" s="5"/>
+    </row>
+    <row r="63" spans="1:42">
       <c r="A63" s="5" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" s="5">
         <v>4</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H63" s="5"/>
-      <c r="Z63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA63">
+      <c r="I63" s="5"/>
+      <c r="AA63" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB63">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
-      <c r="Z64" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA64">
+    <row r="64" spans="1:42">
+      <c r="AA64" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB64">
         <v>5</v>
       </c>
-      <c r="AO64" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="11:42">
-      <c r="K65" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA65">
+      <c r="AP64" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="12:43">
+      <c r="L65" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB65">
         <v>6</v>
       </c>
-      <c r="AO65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP65">
+      <c r="AP65" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ65">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="11:42">
-      <c r="K66" t="s">
-        <v>67</v>
-      </c>
-      <c r="L66">
+    <row r="66" spans="12:43">
+      <c r="L66" t="s">
+        <v>73</v>
+      </c>
+      <c r="M66">
         <v>14</v>
       </c>
-      <c r="AO66" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP66">
+      <c r="AP66" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ66">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="11:42">
-      <c r="K67" t="s">
-        <v>68</v>
-      </c>
-      <c r="L67">
+    <row r="67" spans="12:43">
+      <c r="L67" t="s">
+        <v>74</v>
+      </c>
+      <c r="M67">
         <v>7</v>
       </c>
-      <c r="AO67" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP67">
+      <c r="AP67" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ67">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="11:42">
-      <c r="K68" t="s">
-        <v>69</v>
-      </c>
-      <c r="L68">
+    <row r="68" spans="12:43">
+      <c r="L68" t="s">
+        <v>75</v>
+      </c>
+      <c r="M68">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="11:42">
+    <row r="71" spans="12:43">
       <c r="P71" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72" spans="11:42">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="12:43">
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4815,493 +5185,539 @@
       <c r="W72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="11:42">
+      <c r="X72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="12:43">
       <c r="P73" s="4" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S73" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T73" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U73" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V73" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W73" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="11:42">
+      <c r="X73" s="5"/>
+    </row>
+    <row r="74" spans="12:43">
       <c r="P74" s="4" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="T74" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U74" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W74" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="11:42">
+      <c r="X74" s="5"/>
+    </row>
+    <row r="75" spans="12:43">
       <c r="P75" s="5" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="R75" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S75" s="5">
+        <v>2</v>
+      </c>
+      <c r="T75" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V75" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="12:43">
+      <c r="P76" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S76" s="5">
         <v>1</v>
       </c>
-      <c r="T75" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U75" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V75" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="W75" s="5"/>
-    </row>
-    <row r="76" spans="11:42">
-      <c r="P76" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q76" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="R76" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S76" s="5">
+      <c r="T76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U76" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V76" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="12:43">
+      <c r="P77" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S77" s="5">
         <v>2</v>
       </c>
-      <c r="T76" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="U76" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V76" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="W76" s="5"/>
-    </row>
-    <row r="77" spans="11:42">
-      <c r="P77" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q77" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="R77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S77" s="5">
+      <c r="T77" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U77" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V77" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="12:43">
+      <c r="P78" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S78" s="5">
+        <v>4</v>
+      </c>
+      <c r="T78" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U78" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V78" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="12:43">
+      <c r="P79" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="R79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S79" s="5">
         <v>1</v>
       </c>
-      <c r="T77" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U77" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V77" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="W77" s="5"/>
-    </row>
-    <row r="78" spans="11:42">
-      <c r="P78" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q78" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="R78" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S78" s="5">
-        <v>1</v>
-      </c>
-      <c r="T78" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U78" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V78" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="W78" s="5"/>
-    </row>
-    <row r="79" spans="11:42">
-      <c r="P79" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q79" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="R79" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S79" s="5">
-        <v>4</v>
-      </c>
       <c r="T79" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U79" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V79" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W79" s="5"/>
-    </row>
-    <row r="80" spans="11:42">
+      <c r="X79" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="12:43">
       <c r="P80" s="5" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="R80" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S80" s="5">
         <v>2</v>
       </c>
       <c r="T80" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U80" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V80" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W80" s="5"/>
-    </row>
-    <row r="81" spans="16:27">
+      <c r="X80" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="16:28">
       <c r="P81" s="5" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="Q81" s="5" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="R81" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S81" s="5">
         <v>3</v>
       </c>
       <c r="T81" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U81" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V81" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W81" s="5"/>
-    </row>
-    <row r="82" spans="16:27">
+      <c r="X81" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="16:28">
       <c r="P82" s="5" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="Q82" s="5" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="R82" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="S82" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T82" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="U82" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V82" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W82" s="5"/>
-    </row>
-    <row r="83" spans="16:27">
+      <c r="X82" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="16:28">
       <c r="P83" s="5" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="Q83" s="5" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="R83" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S83" s="5">
         <v>1</v>
       </c>
       <c r="T83" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U83" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V83" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W83" s="5"/>
-    </row>
-    <row r="84" spans="16:27">
+      <c r="X83" s="5"/>
+    </row>
+    <row r="84" spans="16:28">
       <c r="P84" s="5" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="Q84" s="5" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="R84" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S84" s="5">
         <v>1</v>
       </c>
       <c r="T84" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U84" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V84" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W84" s="5"/>
-    </row>
-    <row r="85" spans="16:27">
+      <c r="X84" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="16:28">
       <c r="P85" s="5" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S85" s="5">
         <v>2</v>
       </c>
       <c r="T85" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U85" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V85" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W85" s="5"/>
-    </row>
-    <row r="86" spans="16:27">
+      <c r="X85" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="16:28">
       <c r="P86" s="5" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="Q86" s="5" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="R86" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S86" s="5">
         <v>2</v>
       </c>
       <c r="T86" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U86" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V86" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W86" s="5"/>
-    </row>
-    <row r="87" spans="16:27">
+      <c r="X86" s="5"/>
+    </row>
+    <row r="87" spans="16:28">
       <c r="P87" s="5" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S87" s="5">
         <v>1</v>
       </c>
       <c r="T87" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U87" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V87" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W87" s="5"/>
-    </row>
-    <row r="88" spans="16:27">
+      <c r="X87" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="88" spans="16:28">
       <c r="P88" s="5" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="Q88" s="5" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="R88" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S88" s="5">
         <v>1</v>
       </c>
       <c r="T88" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U88" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V88" s="5" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="W88" s="5"/>
-    </row>
-    <row r="89" spans="16:27">
+      <c r="X88" s="5"/>
+    </row>
+    <row r="89" spans="16:28">
       <c r="P89" s="5" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="Q89" s="5" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="R89" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S89" s="5">
         <v>4</v>
       </c>
       <c r="T89" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U89" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V89" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W89" s="5"/>
-    </row>
-    <row r="90" spans="16:27">
+      <c r="X89" s="5"/>
+    </row>
+    <row r="90" spans="16:28">
       <c r="P90" s="5" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="Q90" s="5" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="R90" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S90" s="5">
         <v>5</v>
       </c>
       <c r="T90" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U90" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V90" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W90" s="5"/>
-    </row>
-    <row r="91" spans="16:27">
+      <c r="X90" s="5"/>
+    </row>
+    <row r="91" spans="16:28">
       <c r="P91" s="5" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="Q91" s="5" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="R91" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S91" s="5">
         <v>4</v>
       </c>
       <c r="T91" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U91" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V91" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="W91" s="5"/>
-    </row>
-    <row r="93" spans="16:27">
-      <c r="Z93" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="94" spans="16:27">
-      <c r="Z94" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA94">
+      <c r="X91" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="16:28">
+      <c r="AA93" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="16:28">
+      <c r="AA94" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB94">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="16:27">
-      <c r="Z95" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA95">
+    <row r="95" spans="16:28">
+      <c r="AA95" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB95">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="16:27">
-      <c r="Z96" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA96">
+    <row r="96" spans="16:28">
+      <c r="AA96" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB96">
         <v>10</v>
       </c>
     </row>
